--- a/data/Ferntransport_12.xlsx
+++ b/data/Ferntransport_12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B20D9C-9F12-0F49-BA72-C6D4C3A93242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653BB6FE-CCA3-5A4B-B71E-E2FDCAD89143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35540" yWindow="-6100" windowWidth="28800" windowHeight="17500" xr2:uid="{E54C3A13-B9AE-5440-94E7-9B66758EAF36}"/>
   </bookViews>
@@ -100,258 +100,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Textfeld 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4C2217-2AC3-1D95-3835-0C0E39F9CACA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2794000" y="203200"/>
-          <a:ext cx="6565900" cy="4584700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>Annahmen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>12 Fahrten pro Jahr</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>- 48h für Be- und Entladung </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>- 15 Tage und 4 Stunden pro Fahrt (364h)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Tansportzeit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> inkl Be- und Entladung pro Fahrt:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>364h + 2 * 48h = 460h</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Tansportzeit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> inkl Be- und Entladung pro Jahr:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>460h * 12 * 1/a =</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>  5520 h/a</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Stunden pro Jahr ohne Transport:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>8760 h/a -  5520 h/a = 3240 h/a</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Stunden pro Fahrt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> ohne Transport (Transportpausen):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>3240 h/a : 12 * 1/a = 270 h</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Stunden pro Transport inkl Transportpausen:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>460 h + 270 h = 730 h</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>Dementsprechend liegt folgendes Fahrtprofil  vor, welches  zwölfmal aneinandergereiht wird</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>48 h	Beladung (lineare Steigung)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>364 h 	Überseefahrt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>48 h 	Entladung (linearer Abfall)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>270 h 	Pause</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,7 +400,7 @@
   <dimension ref="A1:B8760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70742,6 +70492,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Ferntransport_12.xlsx
+++ b/data/Ferntransport_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93D1DF-A5B4-564E-8C97-84ECF8ACC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC92E2-B017-0A4C-A0A4-A429FAF279DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35540" yWindow="-6100" windowWidth="28800" windowHeight="17500" xr2:uid="{E54C3A13-B9AE-5440-94E7-9B66758EAF36}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:O8761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
